--- a/Resources/Templates/Worksheets/Website Assessment.xlsx
+++ b/Resources/Templates/Worksheets/Website Assessment.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ken.tung\Documents\Visual Studio 2012\Projects\asp\MCIFramework\bin\Release\Resources\Templates\Worksheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0 Assessment parameters" sheetId="7" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="2 Summary" sheetId="6" r:id="rId3"/>
     <sheet name="3 Data for upload" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +34,7 @@
     <author>Tom Voirol</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="1">
+    <comment ref="B45" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P45" authorId="2">
+    <comment ref="P45" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="169">
   <si>
     <t>Attributes</t>
   </si>
@@ -388,102 +393,6 @@
     <t>Technical SEO</t>
   </si>
   <si>
-    <t>About Us</t>
-  </si>
-  <si>
-    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/home.html</t>
-  </si>
-  <si>
-    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/about_us/our_organisation/vision_mission_values.html</t>
-  </si>
-  <si>
-    <t>Personal Data Protection Bill</t>
-  </si>
-  <si>
-    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/personal_data_protectionbill.html</t>
-  </si>
-  <si>
-    <t>Press Room</t>
-  </si>
-  <si>
-    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/pressroom.html</t>
-  </si>
-  <si>
-    <t>Job vacancies</t>
-  </si>
-  <si>
-    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/careers/job_vacancies.html</t>
-  </si>
-  <si>
-    <t>Careers</t>
-  </si>
-  <si>
-    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/careers.html</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>How do I set up base in Singapore?</t>
-  </si>
-  <si>
-    <t>seting up base in Singapore</t>
-  </si>
-  <si>
-    <t>What is the latest news announcement from MCI?</t>
-  </si>
-  <si>
-    <t>MCI news</t>
-  </si>
-  <si>
-    <t>What is the Internet regulation in Singapore?</t>
-  </si>
-  <si>
-    <t>Singapore Internet regulation</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>What is the Singapore Infocomm Media Masterplan for the next 10 years?</t>
-  </si>
-  <si>
-    <t>Singapore Infocomm Media Masterplan</t>
-  </si>
-  <si>
-    <t>What did the minister announce in the last budget debate?</t>
-  </si>
-  <si>
-    <t>budget debate Singapore</t>
-  </si>
-  <si>
-    <t>How can the Internet Content Code affect what I can put up on my business?</t>
-  </si>
-  <si>
-    <t>Singapore Internet Content Code</t>
-  </si>
-  <si>
-    <t>Academics and/or Students</t>
-  </si>
-  <si>
-    <t>What is the ministry's policy position on online news site?</t>
-  </si>
-  <si>
-    <t>MCI policy position on news site</t>
-  </si>
-  <si>
-    <t>What are the career options in MCI?</t>
-  </si>
-  <si>
-    <t>MCI career</t>
-  </si>
-  <si>
-    <t>What did the minister say about opportunities in ICT?</t>
-  </si>
-  <si>
-    <t>opportunities in ICT</t>
-  </si>
-  <si>
     <t>By organisation name:</t>
   </si>
   <si>
@@ -503,12 +412,6 @@
   </si>
   <si>
     <t>Organisation name</t>
-  </si>
-  <si>
-    <t>Acronym</t>
-  </si>
-  <si>
-    <t>MCI</t>
   </si>
   <si>
     <t>Ministry of Communications and Information</t>
@@ -1318,19 +1221,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1338,6 +1238,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1854,207 +1757,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="50" t="s">
-        <v>117</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="50"/>
       <c r="B1" s="50" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C1" s="50"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="54" t="s">
-        <v>118</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
       <c r="B2" s="54" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C2" s="50"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="50"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2071,99 +1830,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFF79646"/>
   </sheetPr>
   <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P45" sqref="P45:T45"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
-    <col min="4" max="12" width="6.6640625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" style="27" customWidth="1"/>
-    <col min="15" max="21" width="6.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="29.1640625" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" customWidth="1"/>
-    <col min="25" max="25" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="6.625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="27" customWidth="1"/>
+    <col min="14" max="14" width="1.625" style="27" customWidth="1"/>
+    <col min="15" max="21" width="6.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="29.125" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="13.375" customWidth="1"/>
+    <col min="25" max="25" width="19.375" customWidth="1"/>
     <col min="26" max="26" width="21.5" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C1" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="66" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="68" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="40"/>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="70" t="s">
+      <c r="T1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y1" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1">
+      <c r="V1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
@@ -2191,23 +1950,23 @@
       <c r="L2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="66"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="41"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="67"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="69" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="72"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -2215,7 +1974,7 @@
       </c>
       <c r="C3" s="33">
         <f>IF(O3=1,10,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2229,7 +1988,7 @@
       <c r="M3" s="30"/>
       <c r="N3" s="42"/>
       <c r="O3" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -2241,21 +2000,21 @@
       <c r="W3" s="59"/>
       <c r="X3" s="59"/>
       <c r="Y3" s="27" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="Z3" s="60" t="str">
         <f>IF(C3&lt;10,Y3,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="69"/>
+        <v xml:space="preserve">Ensure the website uses the organisation name (as well as earlier / colloquial names) in text, in a prominent way wherever relevant. </v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
       <c r="B4" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="33">
         <f>IF(O4=1,10,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2269,7 +2028,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="42"/>
       <c r="O4" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -2281,21 +2040,21 @@
       <c r="W4" s="59"/>
       <c r="X4" s="59"/>
       <c r="Y4" s="27" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="Z4" s="60" t="str">
         <f>IF(C4&lt;10,Y4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="69"/>
+        <v xml:space="preserve">Make sure the site mentions the organisation's acronym (as well as acronyms used in the past) in prominent positions and in clear text. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
       <c r="B5" s="17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C5" s="39">
         <f>AVERAGE(C3:C4)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -2317,37 +2076,37 @@
       <c r="U5" s="16"/>
       <c r="V5" s="62"/>
       <c r="W5" s="59" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="X5" s="59" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="Y5" s="59"/>
       <c r="Z5" s="61" t="str">
         <f>IF(INT(C5)&lt;10,CONCATENATE(Z3,Z4),"No recommendations.")</f>
-        <v>No recommendations.</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="69"/>
+        <v xml:space="preserve">Ensure the website uses the organisation name (as well as earlier / colloquial names) in text, in a prominent way wherever relevant. Make sure the site mentions the organisation's acronym (as well as acronyms used in the past) in prominent positions and in clear text. </v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
       <c r="B6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="33">
         <f>M6</f>
-        <v>4.4444444444444446</v>
+        <v>0</v>
       </c>
       <c r="D6" s="51">
         <v>0</v>
       </c>
       <c r="E6" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="52">
         <v>0</v>
       </c>
       <c r="G6" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="53">
         <v>0</v>
@@ -2356,17 +2115,17 @@
         <v>0</v>
       </c>
       <c r="J6" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="52">
         <v>0</v>
       </c>
       <c r="M6" s="12">
         <f>AVERAGE(D6:L6)*10</f>
-        <v>4.4444444444444446</v>
+        <v>0</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="14"/>
@@ -2377,26 +2136,26 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="69"/>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="33">
         <f>M7</f>
-        <v>4.4444444444444446</v>
+        <v>0</v>
       </c>
       <c r="D7" s="51">
         <v>0</v>
       </c>
       <c r="E7" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="52">
         <v>0</v>
       </c>
       <c r="G7" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="53">
         <v>0</v>
@@ -2405,17 +2164,17 @@
         <v>0</v>
       </c>
       <c r="J7" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="52">
         <v>0</v>
       </c>
       <c r="M7" s="12">
         <f>AVERAGE(D7:L7)*10</f>
-        <v>4.4444444444444446</v>
+        <v>0</v>
       </c>
       <c r="N7" s="42"/>
       <c r="O7" s="14"/>
@@ -2426,14 +2185,14 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="69"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
       <c r="B8" s="17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C8" s="39">
         <f>AVERAGE(C6:C7)</f>
-        <v>4.4444444444444446</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -2455,21 +2214,21 @@
       <c r="U8" s="16"/>
       <c r="V8" s="63"/>
       <c r="W8" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="X8" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="Y8" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="Z8" s="61" t="str">
         <f>IF(INT(C8)&lt;10,Y8,"No recommendations.")</f>
         <v>Through research, identify the commonly used keywords that your top audience groups are likely to use in a search when trying to find information about or content from your organisation. Ensure that you use those keywords prominently in the copy of your content.</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="69"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
       <c r="B9" s="9" t="s">
         <v>73</v>
       </c>
@@ -2498,21 +2257,21 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="Y9" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="Z9" s="60" t="str">
         <f>IF(C9&lt;10,Y9,"")</f>
         <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. </v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="69"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
       <c r="B10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="33">
-        <f>IF(O10=1,10,0)</f>
-        <v>0</v>
+      <c r="C10" s="33" t="str">
+        <f>IF(C9=0,"NA",IF(O10=1,10,0))</f>
+        <v>NA</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2535,15 +2294,15 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="Y10" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="Z10" s="60" t="str">
         <f>IF(C10&lt;10,Y10,"")</f>
-        <v xml:space="preserve">Ensure your robots.txt file does not disallow robots to crawl the website. </v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
       <c r="B11" s="9" t="s">
         <v>75</v>
       </c>
@@ -2572,21 +2331,21 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="Y11" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="Z11" s="60" t="str">
         <f>IF(C11&lt;10,Y11,"")</f>
         <v xml:space="preserve">Add a sitemap.xml file to the website to help search engines understand the structure of your site. </v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="69"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
       <c r="B12" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="33">
         <f>U12</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2600,43 +2359,43 @@
       <c r="M12" s="30"/>
       <c r="N12" s="42"/>
       <c r="O12" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="10">
         <f>AVERAGE(O12:T12)*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="Z12" s="60" t="str">
         <f>IF(C12&lt;10,Y12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="69"/>
+        <v xml:space="preserve">Ensure all your URLs are human-readable. A good example would be "http://www.hpb.com.sg/blog/2010/22/healthy-eating", as opposed to "http://www.hpb.com.sg/blog/?p=479". </v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
       <c r="B13" s="17" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C13" s="39">
         <f>SUM(C9:C12)/COUNTIF(C9:C12,"&lt;&gt;NA")</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2658,24 +2417,24 @@
       <c r="U13" s="48"/>
       <c r="V13" s="63"/>
       <c r="W13" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="Z13" s="61" t="str">
         <f>IF(INT(C13)&lt;10,CONCATENATE(Z9,Z10,Z11,Z12),"No recommendations.")</f>
-        <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. Ensure your robots.txt file does not disallow robots to crawl the website. Add a sitemap.xml file to the website to help search engines understand the structure of your site. </v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. Add a sitemap.xml file to the website to help search engines understand the structure of your site. Ensure all your URLs are human-readable. A good example would be "http://www.hpb.com.sg/blog/2010/22/healthy-eating", as opposed to "http://www.hpb.com.sg/blog/?p=479". </v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="13">
         <f>AVERAGE(C5,C8,C13)</f>
-        <v>5.6481481481481479</v>
+        <v>0</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="8"/>
@@ -2690,10 +2449,10 @@
       <c r="N14" s="40"/>
       <c r="U14" s="8"/>
       <c r="W14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -2705,7 +2464,7 @@
       <c r="I15" s="28"/>
       <c r="N15" s="40"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -2717,7 +2476,7 @@
       <c r="I16" s="28"/>
       <c r="N16" s="40"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -2729,8 +2488,8 @@
       <c r="I17" s="28"/>
       <c r="N17" s="40"/>
     </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2771,15 +2530,15 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="Z18" s="60" t="str">
         <f>IF(U18&lt;10,Y18,"")</f>
         <v>Ensure all font sizes used are at least as big as or bigger than Arial font point 10.</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="68"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
@@ -2796,37 +2555,37 @@
       <c r="M19" s="30"/>
       <c r="N19" s="40"/>
       <c r="O19" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="10">
         <f t="shared" ref="U19:U21" si="0">AVERAGE(O19:T19)*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="Z19" s="60" t="str">
         <f>IF(U19&lt;10,Y19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="68"/>
+        <v xml:space="preserve">Regularly check internal and outgoing hyperlinks to ensure they remain valid. This can be done with on-board tools of the CMS you use, or with external utilities. </v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -2843,37 +2602,37 @@
       <c r="M20" s="30"/>
       <c r="N20" s="40"/>
       <c r="O20" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="52">
         <v>0</v>
       </c>
       <c r="R20" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="Z20" s="60" t="str">
         <f>IF(U20&lt;10,Y20,"")</f>
         <v xml:space="preserve">Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. </v>
       </c>
     </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="68"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
@@ -2890,43 +2649,43 @@
       <c r="M21" s="30"/>
       <c r="N21" s="40"/>
       <c r="O21" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="Z21" s="60" t="str">
         <f>IF(U21&lt;10,Y21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="68"/>
+        <v>Hyperlinks should be immediately recognisable as such. This means using colour, text decoration or other means to make them obvious.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="39">
         <f>U22</f>
-        <v>7.0833333333333339</v>
+        <v>0</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2947,22 +2706,22 @@
       <c r="T22" s="16"/>
       <c r="U22" s="35">
         <f>AVERAGE(U18:U21)</f>
-        <v>7.0833333333333339</v>
+        <v>0</v>
       </c>
       <c r="V22" s="63"/>
       <c r="W22" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="X22" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="Z22" s="61" t="str">
         <f>IF(INT(C22)&lt;10,CONCATENATE(Z18,Z19,Z20,Z21),"No recommendations.")</f>
-        <v xml:space="preserve">Ensure all font sizes used are at least as big as or bigger than Arial font point 10.Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. </v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="68"/>
+        <v>Ensure all font sizes used are at least as big as or bigger than Arial font point 10.Regularly check internal and outgoing hyperlinks to ensure they remain valid. This can be done with on-board tools of the CMS you use, or with external utilities. Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. Hyperlinks should be immediately recognisable as such. This means using colour, text decoration or other means to make them obvious.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
       <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
@@ -2971,32 +2730,32 @@
         <v>0</v>
       </c>
       <c r="E23" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="52">
         <v>0</v>
       </c>
       <c r="G23" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="53">
         <v>0</v>
       </c>
       <c r="J23" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="33">
         <f>AVERAGE(D23:L23)*10</f>
-        <v>6.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="14"/>
@@ -3007,15 +2766,15 @@
       <c r="T23" s="14"/>
       <c r="U23" s="32"/>
       <c r="Y23" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="Z23" s="60" t="str">
         <f>IF(M23&lt;10,Y23,"")</f>
         <v>Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
@@ -3024,32 +2783,32 @@
         <v>0</v>
       </c>
       <c r="E24" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="52">
         <v>0</v>
       </c>
       <c r="G24" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="53">
         <v>0</v>
       </c>
       <c r="J24" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="33">
         <f>AVERAGE(D24:L24)*10</f>
-        <v>6.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="14"/>
@@ -3060,15 +2819,15 @@
       <c r="T24" s="14"/>
       <c r="U24" s="32"/>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="Z24" s="60" t="str">
         <f>IF(M24&lt;10,Y24,"")</f>
         <v xml:space="preserve">Make sure your site search works for all key scenarios and returns relevant results, described appropriately. </v>
       </c>
     </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="68"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="66"/>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
@@ -3097,15 +2856,15 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="Z25" s="60" t="str">
         <f t="shared" ref="Z25:Z26" si="2">IF(U25&lt;10,Y25,"")</f>
         <v xml:space="preserve">Ensure your labels use your audiences' language and are clear, simple and intuitive. </v>
       </c>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="66"/>
       <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
@@ -3134,15 +2893,15 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="Z26" s="60" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Consider employing responsive web design to service mobile devices. </v>
       </c>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="68"/>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="66"/>
       <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
@@ -3160,40 +2919,40 @@
       <c r="N27" s="40"/>
       <c r="O27" s="14"/>
       <c r="P27" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="Z27" s="60" t="str">
         <f>IF(U27&lt;10,Y27,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="68"/>
+        <v xml:space="preserve">Have a home link on every page, allowing the user to go back to the homepage easily. </v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
       <c r="B28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="39">
         <f>U28</f>
-        <v>4.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -3214,28 +2973,28 @@
       <c r="T28" s="16"/>
       <c r="U28" s="35">
         <f>AVERAGE(M23:M24,U25:U27)</f>
-        <v>4.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="V28" s="63"/>
       <c r="W28" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="X28" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="Z28" s="61" t="str">
         <f>IF(INT(C28)&lt;10,CONCATENATE(Z23,Z24,Z25,Z26,Z27),"No recommendations.")</f>
-        <v xml:space="preserve">Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.Make sure your site search works for all key scenarios and returns relevant results, described appropriately. Ensure your labels use your audiences' language and are clear, simple and intuitive. Consider employing responsive web design to service mobile devices. </v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="68"/>
+        <v xml:space="preserve">Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.Make sure your site search works for all key scenarios and returns relevant results, described appropriately. Ensure your labels use your audiences' language and are clear, simple and intuitive. Consider employing responsive web design to service mobile devices. Have a home link on every page, allowing the user to go back to the homepage easily. </v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
       <c r="B29" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="13">
         <f>AVERAGE(C22,C28)</f>
-        <v>5.875</v>
+        <v>0</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -3245,10 +3004,10 @@
       <c r="I29" s="28"/>
       <c r="N29" s="40"/>
       <c r="V29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -3258,7 +3017,7 @@
       <c r="I30" s="28"/>
       <c r="N30" s="40"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
@@ -3268,7 +3027,7 @@
       <c r="I31" s="28"/>
       <c r="N31" s="40"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -3278,8 +3037,8 @@
       <c r="I32" s="28"/>
       <c r="N32" s="40"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="69" t="s">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3298,7 +3057,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="40"/>
       <c r="O33" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -3307,18 +3066,18 @@
       <c r="T33" s="14"/>
       <c r="U33" s="1">
         <f t="shared" ref="U33:U35" si="3">O33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="Z33" s="60" t="str">
         <f>IF(C33&lt;10,Y33,"")</f>
         <v xml:space="preserve">Place the organisation's physical address prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
       </c>
     </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="69"/>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="67"/>
       <c r="B34" s="5" t="s">
         <v>52</v>
       </c>
@@ -3335,7 +3094,7 @@
       <c r="M34" s="30"/>
       <c r="N34" s="40"/>
       <c r="O34" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
@@ -3344,18 +3103,18 @@
       <c r="T34" s="14"/>
       <c r="U34" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="Z34" s="60" t="str">
         <f>IF(C34&lt;10,Y34,"")</f>
         <v xml:space="preserve">Place the organisation's phone number prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
       </c>
     </row>
-    <row r="35" spans="1:26">
-      <c r="A35" s="69"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="67"/>
       <c r="B35" s="5" t="s">
         <v>51</v>
       </c>
@@ -3372,7 +3131,7 @@
       <c r="M35" s="30"/>
       <c r="N35" s="40"/>
       <c r="O35" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
@@ -3381,24 +3140,24 @@
       <c r="T35" s="14"/>
       <c r="U35" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="Z35" s="60" t="str">
         <f>IF(C35&lt;10,Y35,"")</f>
         <v xml:space="preserve">Place the organisation's email address prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
       </c>
     </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="69"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="67"/>
       <c r="B36" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="12">
         <f>U36</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -3419,22 +3178,22 @@
       <c r="T36" s="16"/>
       <c r="U36" s="12">
         <f>AVERAGE(U33:U35)*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V36" s="63"/>
       <c r="W36" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="X36" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="Z36" s="61" t="str">
         <f>IF(INT(C36)&lt;10,CONCATENATE(Z33,Z34,Z35),"No recommendations.")</f>
-        <v>No recommendations.</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="69"/>
+        <v xml:space="preserve">Place the organisation's physical address prominently on the homepage or within one click of it. The page footer is one way of achieving this. Place the organisation's phone number prominently on the homepage or within one click of it. The page footer is one way of achieving this. Place the organisation's email address prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
@@ -3451,37 +3210,37 @@
       <c r="M37" s="30"/>
       <c r="N37" s="40"/>
       <c r="O37" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="52">
         <v>0</v>
       </c>
       <c r="R37" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="10">
         <f>SUM(O37:T37)/6*10</f>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="Z37" s="60" t="str">
         <f>IF(U37&lt;10,Y37,"")</f>
         <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. </v>
       </c>
     </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="69"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="67"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
@@ -3498,37 +3257,37 @@
       <c r="M38" s="30"/>
       <c r="N38" s="40"/>
       <c r="O38" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="10">
         <f>SUM(O38:T38)/6*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="Z38" s="60" t="str">
         <f t="shared" ref="Z38:Z41" si="4">IF(U38&lt;10,Y38,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="69"/>
+        <v xml:space="preserve">Use introductory paragraphs, page titles and imagery to make immediately apparent what each page is about. </v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
       <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
@@ -3545,37 +3304,37 @@
       <c r="M39" s="30"/>
       <c r="N39" s="40"/>
       <c r="O39" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="10">
         <f>SUM(O39:T39)/6*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="Z39" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="69"/>
+        <v xml:space="preserve">Make sure the page title on its own adequately explains what the user can expect from the page. </v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="67"/>
       <c r="B40" s="5" t="s">
         <v>60</v>
       </c>
@@ -3595,34 +3354,34 @@
         <v>0</v>
       </c>
       <c r="P40" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="10">
         <f>SUM(O40:T40)/6*10</f>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Z40" s="60" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. </v>
       </c>
     </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="69"/>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="67"/>
       <c r="B41" s="19" t="s">
         <v>42</v>
       </c>
@@ -3639,7 +3398,7 @@
       <c r="M41" s="30"/>
       <c r="N41" s="40"/>
       <c r="O41" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -3648,24 +3407,24 @@
       <c r="T41" s="14"/>
       <c r="U41" s="1">
         <f>IF(O41=1,10,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="Z41" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="69"/>
+        <v xml:space="preserve">Make sure your site is updated regularly. </v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="67"/>
       <c r="B42" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="39">
         <f>U42</f>
-        <v>9.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -3686,22 +3445,22 @@
       <c r="T42" s="16"/>
       <c r="U42" s="35">
         <f>AVERAGE(U37:U41)</f>
-        <v>9.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="V42" s="63"/>
       <c r="W42" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="X42" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="Z42" s="61" t="str">
         <f>IF(INT(C42)&lt;10,CONCATENATE(Z37,Z38,Z39,Z40,Z41),"No recommendations.")</f>
-        <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. </v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="69"/>
+        <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. Use introductory paragraphs, page titles and imagery to make immediately apparent what each page is about. Make sure the page title on its own adequately explains what the user can expect from the page. Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. Make sure your site is updated regularly. </v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="67"/>
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -3718,34 +3477,34 @@
       <c r="N43" s="40"/>
       <c r="O43" s="14"/>
       <c r="P43" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="10">
         <f>SUM(O43:T43)/5*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="Z43" s="60" t="str">
         <f t="shared" ref="Z43:Z44" si="5">IF(U43&lt;10,Y43,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="69"/>
+        <v xml:space="preserve">Ensure your language, terminology and writing style is appropriate for your audience. </v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="67"/>
       <c r="B44" s="64" t="s">
         <v>44</v>
       </c>
@@ -3762,34 +3521,34 @@
       <c r="N44" s="40"/>
       <c r="O44" s="14"/>
       <c r="P44" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="10">
         <f>SUM(O44:T44)/5*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="Z44" s="60" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="69"/>
+        <v xml:space="preserve">Avoid passive language wherever possible. Form sentences in active language instead. </v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
       <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
@@ -3806,40 +3565,40 @@
       <c r="N45" s="40"/>
       <c r="O45" s="14"/>
       <c r="P45" s="53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R45" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U45" s="10">
         <f>AVERAGE(P45:T45)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="Z45" s="60" t="str">
         <f>IF(U45&lt;10,Y45,"")</f>
         <v xml:space="preserve">Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
       </c>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="69"/>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="67"/>
       <c r="B46" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="12">
         <f>U46</f>
-        <v>7.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -3860,22 +3619,22 @@
       <c r="T46" s="16"/>
       <c r="U46" s="12">
         <f>AVERAGE(U43:U45)</f>
-        <v>7.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="V46" s="63"/>
       <c r="W46" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="X46" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="Z46" s="61" t="str">
         <f>IF(INT(C46)&lt;10,CONCATENATE(Z43,Z44,Z45),"No recommendations.")</f>
-        <v xml:space="preserve">Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="69"/>
+        <v xml:space="preserve">Ensure your language, terminology and writing style is appropriate for your audience. Avoid passive language wherever possible. Form sentences in active language instead. Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -3894,34 +3653,34 @@
         <v>0</v>
       </c>
       <c r="P47" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="10">
         <f>SUM(O47:T47)/6*10</f>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="Z47" s="60" t="str">
         <f t="shared" ref="Z47:Z49" si="6">IF(U47&lt;10,Y47,"")</f>
         <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. </v>
       </c>
     </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="69"/>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="67"/>
       <c r="B48" t="s">
         <v>63</v>
       </c>
@@ -3937,37 +3696,37 @@
       <c r="M48" s="30"/>
       <c r="N48" s="40"/>
       <c r="O48" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="10">
         <f t="shared" ref="U48:U50" si="7">SUM(O48:T48)/6*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="Z48" s="60" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="69"/>
+        <v xml:space="preserve">When inserting photos, always use JPEG or PNG format, never GIF. </v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="67"/>
       <c r="B49" t="s">
         <v>62</v>
       </c>
@@ -3983,37 +3742,37 @@
       <c r="M49" s="30"/>
       <c r="N49" s="40"/>
       <c r="O49" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="10">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="Z49" s="60" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="69"/>
+        <v xml:space="preserve">When inserting line drawings, diagrams and logos, always use GIF or PNG format, never JPEG. </v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="67"/>
       <c r="B50" t="s">
         <v>45</v>
       </c>
@@ -4029,43 +3788,43 @@
       <c r="M50" s="30"/>
       <c r="N50" s="40"/>
       <c r="O50" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="10">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="Z50" s="60" t="str">
         <f>IF(U50&lt;10,Y50,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="69"/>
+        <v xml:space="preserve">Use images that help to illustrate the content. Don't just add stock photography with little relation to the page and its subject matter. </v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="67"/>
       <c r="B51" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="12">
         <f>U51</f>
-        <v>9.5833333333333339</v>
+        <v>0</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
@@ -4086,28 +3845,28 @@
       <c r="T51" s="16"/>
       <c r="U51" s="12">
         <f>AVERAGE(U47:U50)</f>
-        <v>9.5833333333333339</v>
+        <v>0</v>
       </c>
       <c r="V51" s="63"/>
       <c r="W51" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="X51" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="Z51" s="61" t="str">
         <f>IF(INT(C51)&lt;10,CONCATENATE(Z47,Z48,Z49,Z50),"No recommendations.")</f>
-        <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. </v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="69"/>
+        <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. When inserting photos, always use JPEG or PNG format, never GIF. When inserting line drawings, diagrams and logos, always use GIF or PNG format, never JPEG. Use images that help to illustrate the content. Don't just add stock photography with little relation to the page and its subject matter. </v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="67"/>
       <c r="B52" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="13">
         <f>AVERAGE(C36,C42,C46,C51)</f>
-        <v>9.1458333333333339</v>
+        <v>0</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
@@ -4118,10 +3877,10 @@
       <c r="N52" s="40"/>
       <c r="U52" s="36"/>
       <c r="V52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
@@ -4130,7 +3889,7 @@
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -4139,7 +3898,7 @@
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -4147,7 +3906,7 @@
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -4155,7 +3914,7 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -4163,7 +3922,7 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -4171,7 +3930,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -4179,7 +3938,7 @@
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -4187,7 +3946,7 @@
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -4195,7 +3954,7 @@
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -4203,7 +3962,7 @@
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
@@ -4211,7 +3970,7 @@
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
@@ -4219,7 +3978,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="4:9">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -4227,7 +3986,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="4:9">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -4235,7 +3994,7 @@
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="4:9">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -4243,7 +4002,7 @@
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
     </row>
-    <row r="68" spans="4:9">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -4251,7 +4010,7 @@
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
     </row>
-    <row r="69" spans="4:9">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -4259,7 +4018,7 @@
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="4:9">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -4267,7 +4026,7 @@
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="4:9">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -4275,7 +4034,7 @@
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="4:9">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -4283,7 +4042,7 @@
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
     </row>
-    <row r="73" spans="4:9">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
@@ -4291,7 +4050,7 @@
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
     </row>
-    <row r="74" spans="4:9">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -4299,7 +4058,7 @@
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="4:9">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -4307,7 +4066,7 @@
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="4:9">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -4315,7 +4074,7 @@
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="4:9">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -4323,7 +4082,7 @@
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
     </row>
-    <row r="78" spans="4:9">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -4331,7 +4090,7 @@
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
     </row>
-    <row r="79" spans="4:9">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -4339,7 +4098,7 @@
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="4:9">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
@@ -4347,7 +4106,7 @@
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
     </row>
-    <row r="81" spans="4:9">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
@@ -4355,7 +4114,7 @@
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
     </row>
-    <row r="82" spans="4:9">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
@@ -4363,7 +4122,7 @@
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="4:9">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
@@ -4371,7 +4130,7 @@
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
     </row>
-    <row r="84" spans="4:9">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -4379,7 +4138,7 @@
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="4:9">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -4387,7 +4146,7 @@
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="4:9">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
@@ -4395,7 +4154,7 @@
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="4:9">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -4403,7 +4162,7 @@
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
     </row>
-    <row r="88" spans="4:9">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -4411,7 +4170,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
     </row>
-    <row r="89" spans="4:9">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -4419,7 +4178,7 @@
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="4:9">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -4427,7 +4186,7 @@
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
     </row>
-    <row r="91" spans="4:9">
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -4435,7 +4194,7 @@
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="4:9">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -4443,7 +4202,7 @@
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
     </row>
-    <row r="93" spans="4:9">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -4451,7 +4210,7 @@
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="4:9">
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -4459,7 +4218,7 @@
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="4:9">
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -4467,7 +4226,7 @@
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="4:9">
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -4475,7 +4234,7 @@
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="4:9">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -4483,7 +4242,7 @@
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
     </row>
-    <row r="98" spans="4:9">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
@@ -4491,7 +4250,7 @@
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="4:9">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -4499,7 +4258,7 @@
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
     </row>
-    <row r="100" spans="4:9">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D100" s="28"/>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
@@ -4507,7 +4266,7 @@
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="4:9">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D101" s="28"/>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
@@ -4515,7 +4274,7 @@
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="4:9">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
@@ -4523,7 +4282,7 @@
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="4:9">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
@@ -4531,7 +4290,7 @@
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="4:9">
+    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D104" s="28"/>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
@@ -4539,7 +4298,7 @@
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="4:9">
+    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
@@ -4547,7 +4306,7 @@
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="4:9">
+    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
@@ -4555,7 +4314,7 @@
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
     </row>
-    <row r="107" spans="4:9">
+    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D107" s="28"/>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
@@ -4563,7 +4322,7 @@
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
     </row>
-    <row r="108" spans="4:9">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D108" s="28"/>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
@@ -4571,7 +4330,7 @@
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
     </row>
-    <row r="109" spans="4:9">
+    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D109" s="28"/>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
@@ -4579,7 +4338,7 @@
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
     </row>
-    <row r="110" spans="4:9">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D110" s="28"/>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
@@ -4587,7 +4346,7 @@
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
     </row>
-    <row r="111" spans="4:9">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D111" s="28"/>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
@@ -4595,7 +4354,7 @@
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
     </row>
-    <row r="112" spans="4:9">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D112" s="28"/>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
@@ -4603,7 +4362,7 @@
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
     </row>
-    <row r="113" spans="4:9">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D113" s="28"/>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
@@ -4611,7 +4370,7 @@
       <c r="H113" s="28"/>
       <c r="I113" s="28"/>
     </row>
-    <row r="114" spans="4:9">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
@@ -4619,7 +4378,7 @@
       <c r="H114" s="28"/>
       <c r="I114" s="28"/>
     </row>
-    <row r="115" spans="4:9">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D115" s="28"/>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
@@ -4627,7 +4386,7 @@
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
     </row>
-    <row r="116" spans="4:9">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D116" s="28"/>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
@@ -4635,7 +4394,7 @@
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
     </row>
-    <row r="117" spans="4:9">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D117" s="28"/>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
@@ -4643,7 +4402,7 @@
       <c r="H117" s="28"/>
       <c r="I117" s="28"/>
     </row>
-    <row r="118" spans="4:9">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D118" s="28"/>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
@@ -4651,7 +4410,7 @@
       <c r="H118" s="28"/>
       <c r="I118" s="28"/>
     </row>
-    <row r="119" spans="4:9">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D119" s="28"/>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
@@ -4659,7 +4418,7 @@
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
     </row>
-    <row r="120" spans="4:9">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D120" s="28"/>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
@@ -4667,7 +4426,7 @@
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
     </row>
-    <row r="121" spans="4:9">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D121" s="28"/>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -4675,7 +4434,7 @@
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
     </row>
-    <row r="122" spans="4:9">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D122" s="28"/>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -4683,7 +4442,7 @@
       <c r="H122" s="28"/>
       <c r="I122" s="28"/>
     </row>
-    <row r="123" spans="4:9">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D123" s="28"/>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -4691,7 +4450,7 @@
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
     </row>
-    <row r="124" spans="4:9">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D124" s="28"/>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -4699,7 +4458,7 @@
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
     </row>
-    <row r="125" spans="4:9">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D125" s="28"/>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
@@ -4707,7 +4466,7 @@
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
     </row>
-    <row r="126" spans="4:9">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D126" s="28"/>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
@@ -4715,7 +4474,7 @@
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
     </row>
-    <row r="127" spans="4:9">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D127" s="28"/>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
@@ -4723,7 +4482,7 @@
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
     </row>
-    <row r="128" spans="4:9">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D128" s="28"/>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -4731,7 +4490,7 @@
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
     </row>
-    <row r="129" spans="4:9">
+    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
@@ -4739,7 +4498,7 @@
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
     </row>
-    <row r="130" spans="4:9">
+    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D130" s="28"/>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
@@ -4747,7 +4506,7 @@
       <c r="H130" s="28"/>
       <c r="I130" s="28"/>
     </row>
-    <row r="131" spans="4:9">
+    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D131" s="28"/>
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
@@ -4755,7 +4514,7 @@
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
     </row>
-    <row r="132" spans="4:9">
+    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
@@ -4763,7 +4522,7 @@
       <c r="H132" s="28"/>
       <c r="I132" s="28"/>
     </row>
-    <row r="133" spans="4:9">
+    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
@@ -4771,7 +4530,7 @@
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
     </row>
-    <row r="134" spans="4:9">
+    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D134" s="28"/>
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
@@ -4779,7 +4538,7 @@
       <c r="H134" s="28"/>
       <c r="I134" s="28"/>
     </row>
-    <row r="135" spans="4:9">
+    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D135" s="28"/>
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
@@ -4787,7 +4546,7 @@
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
     </row>
-    <row r="136" spans="4:9">
+    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D136" s="28"/>
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
@@ -4795,7 +4554,7 @@
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
     </row>
-    <row r="137" spans="4:9">
+    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D137" s="28"/>
       <c r="E137" s="28"/>
       <c r="F137" s="28"/>
@@ -4803,7 +4562,7 @@
       <c r="H137" s="28"/>
       <c r="I137" s="28"/>
     </row>
-    <row r="138" spans="4:9">
+    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D138" s="28"/>
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
@@ -4811,7 +4570,7 @@
       <c r="H138" s="28"/>
       <c r="I138" s="28"/>
     </row>
-    <row r="139" spans="4:9">
+    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D139" s="28"/>
       <c r="E139" s="28"/>
       <c r="F139" s="28"/>
@@ -4819,7 +4578,7 @@
       <c r="H139" s="28"/>
       <c r="I139" s="28"/>
     </row>
-    <row r="140" spans="4:9">
+    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D140" s="28"/>
       <c r="E140" s="28"/>
       <c r="F140" s="28"/>
@@ -4827,7 +4586,7 @@
       <c r="H140" s="28"/>
       <c r="I140" s="28"/>
     </row>
-    <row r="141" spans="4:9">
+    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D141" s="28"/>
       <c r="E141" s="28"/>
       <c r="F141" s="28"/>
@@ -4835,7 +4594,7 @@
       <c r="H141" s="28"/>
       <c r="I141" s="28"/>
     </row>
-    <row r="142" spans="4:9">
+    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D142" s="28"/>
       <c r="E142" s="28"/>
       <c r="F142" s="28"/>
@@ -4843,7 +4602,7 @@
       <c r="H142" s="28"/>
       <c r="I142" s="28"/>
     </row>
-    <row r="143" spans="4:9">
+    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D143" s="28"/>
       <c r="E143" s="28"/>
       <c r="F143" s="28"/>
@@ -4851,7 +4610,7 @@
       <c r="H143" s="28"/>
       <c r="I143" s="28"/>
     </row>
-    <row r="144" spans="4:9">
+    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D144" s="28"/>
       <c r="E144" s="28"/>
       <c r="F144" s="28"/>
@@ -4859,7 +4618,7 @@
       <c r="H144" s="28"/>
       <c r="I144" s="28"/>
     </row>
-    <row r="145" spans="4:9">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D145" s="28"/>
       <c r="E145" s="28"/>
       <c r="F145" s="28"/>
@@ -4867,7 +4626,7 @@
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
     </row>
-    <row r="146" spans="4:9">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D146" s="28"/>
       <c r="E146" s="28"/>
       <c r="F146" s="28"/>
@@ -4875,7 +4634,7 @@
       <c r="H146" s="28"/>
       <c r="I146" s="28"/>
     </row>
-    <row r="147" spans="4:9">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D147" s="28"/>
       <c r="E147" s="28"/>
       <c r="F147" s="28"/>
@@ -4883,7 +4642,7 @@
       <c r="H147" s="28"/>
       <c r="I147" s="28"/>
     </row>
-    <row r="148" spans="4:9">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D148" s="28"/>
       <c r="E148" s="28"/>
       <c r="F148" s="28"/>
@@ -4891,7 +4650,7 @@
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
     </row>
-    <row r="149" spans="4:9">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D149" s="28"/>
       <c r="E149" s="28"/>
       <c r="F149" s="28"/>
@@ -4899,7 +4658,7 @@
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
     </row>
-    <row r="150" spans="4:9">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D150" s="28"/>
       <c r="E150" s="28"/>
       <c r="F150" s="28"/>
@@ -4907,7 +4666,7 @@
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
     </row>
-    <row r="151" spans="4:9">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D151" s="28"/>
       <c r="E151" s="28"/>
       <c r="F151" s="28"/>
@@ -4915,7 +4674,7 @@
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
     </row>
-    <row r="152" spans="4:9">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D152" s="28"/>
       <c r="E152" s="28"/>
       <c r="F152" s="28"/>
@@ -4923,7 +4682,7 @@
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
     </row>
-    <row r="153" spans="4:9">
+    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D153" s="28"/>
       <c r="E153" s="28"/>
       <c r="F153" s="28"/>
@@ -4931,7 +4690,7 @@
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
     </row>
-    <row r="154" spans="4:9">
+    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D154" s="28"/>
       <c r="E154" s="28"/>
       <c r="F154" s="28"/>
@@ -4939,7 +4698,7 @@
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
     </row>
-    <row r="155" spans="4:9">
+    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D155" s="28"/>
       <c r="E155" s="28"/>
       <c r="F155" s="28"/>
@@ -4947,7 +4706,7 @@
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
     </row>
-    <row r="156" spans="4:9">
+    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D156" s="28"/>
       <c r="E156" s="28"/>
       <c r="F156" s="28"/>
@@ -4955,7 +4714,7 @@
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
     </row>
-    <row r="157" spans="4:9">
+    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D157" s="28"/>
       <c r="E157" s="28"/>
       <c r="F157" s="28"/>
@@ -4963,7 +4722,7 @@
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
     </row>
-    <row r="158" spans="4:9">
+    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D158" s="28"/>
       <c r="E158" s="28"/>
       <c r="F158" s="28"/>
@@ -4971,7 +4730,7 @@
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
     </row>
-    <row r="159" spans="4:9">
+    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D159" s="28"/>
       <c r="E159" s="28"/>
       <c r="F159" s="28"/>
@@ -4979,7 +4738,7 @@
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
     </row>
-    <row r="160" spans="4:9">
+    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D160" s="28"/>
       <c r="E160" s="28"/>
       <c r="F160" s="28"/>
@@ -4987,7 +4746,7 @@
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
     </row>
-    <row r="161" spans="4:9">
+    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D161" s="28"/>
       <c r="E161" s="28"/>
       <c r="F161" s="28"/>
@@ -4995,7 +4754,7 @@
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
     </row>
-    <row r="162" spans="4:9">
+    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D162" s="28"/>
       <c r="E162" s="28"/>
       <c r="F162" s="28"/>
@@ -5003,7 +4762,7 @@
       <c r="H162" s="28"/>
       <c r="I162" s="28"/>
     </row>
-    <row r="163" spans="4:9">
+    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D163" s="28"/>
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
@@ -5011,7 +4770,7 @@
       <c r="H163" s="28"/>
       <c r="I163" s="28"/>
     </row>
-    <row r="164" spans="4:9">
+    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D164" s="28"/>
       <c r="E164" s="28"/>
       <c r="F164" s="28"/>
@@ -5019,7 +4778,7 @@
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
     </row>
-    <row r="165" spans="4:9">
+    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D165" s="28"/>
       <c r="E165" s="28"/>
       <c r="F165" s="28"/>
@@ -5027,7 +4786,7 @@
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
     </row>
-    <row r="166" spans="4:9">
+    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D166" s="28"/>
       <c r="E166" s="28"/>
       <c r="F166" s="28"/>
@@ -5038,6 +4797,11 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A18:A29"/>
     <mergeCell ref="A33:A52"/>
     <mergeCell ref="C1:C2"/>
@@ -5053,11 +4817,6 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A3:A13"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O13:T13">
@@ -5085,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF00ADF2"/>
   </sheetPr>
   <dimension ref="A1:Q7"/>
@@ -5094,31 +4853,31 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="47" customHeight="1">
+    <row r="1" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="21">
         <f>N6</f>
-        <v>6.8896604938271606</v>
+        <v>0</v>
       </c>
       <c r="D1" s="49"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B2" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>21</v>
       </c>
@@ -5144,7 +4903,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45">
+    <row r="5" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="78"/>
       <c r="B5" s="23" t="s">
         <v>22</v>
@@ -5184,65 +4943,65 @@
       </c>
       <c r="N5" s="73"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="78"/>
       <c r="B6" s="25">
         <f>'1 Website'!C3</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="25">
         <f>'1 Website'!C7</f>
-        <v>4.4444444444444446</v>
+        <v>0</v>
       </c>
       <c r="D6" s="25">
         <f>'1 Website'!C13</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="25">
         <f>AVERAGE(B6:D6)</f>
-        <v>5.6481481481481479</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10">
         <f>'1 Website'!C22</f>
-        <v>7.0833333333333339</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10">
         <f>'1 Website'!C28</f>
-        <v>4.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="H6" s="10">
         <f>AVERAGE(F6:G6)</f>
-        <v>5.875</v>
+        <v>0</v>
       </c>
       <c r="I6" s="10">
         <f>'1 Website'!C36</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" s="10">
         <f>'1 Website'!C42</f>
-        <v>9.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="K6" s="10">
         <f>'1 Website'!C46</f>
-        <v>7.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L6" s="10">
         <f>'1 Website'!C51</f>
-        <v>9.5833333333333339</v>
+        <v>0</v>
       </c>
       <c r="M6" s="10">
         <f>AVERAGE(I6:L6)</f>
-        <v>9.1458333333333339</v>
+        <v>0</v>
       </c>
       <c r="N6" s="34">
         <f>AVERAGE(M6,H6,E6)</f>
-        <v>6.8896604938271606</v>
+        <v>0</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5295,7 +5054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 E6 M6:N6">
+  <conditionalFormatting sqref="E6 H6 M6:N6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5325,60 +5084,60 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="56" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="56" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="7" width="33.375" customWidth="1"/>
+    <col min="8" max="8" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="58" t="str">
         <f>FIXED('2 Summary'!C1,1)</f>
-        <v>6.9</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="str">
         <f>'2 Summary'!A2</f>
         <v>Assesses the organisation’s performance on their website according to global standards and understanding of target audience groups’ needs</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="56">
         <v>3.1</v>
       </c>
@@ -5387,23 +5146,23 @@
       </c>
       <c r="C3" s="58" t="str">
         <f>FIXED('2 Summary'!E6,1)</f>
-        <v>5.6</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="str">
         <f>'1 Website'!W14</f>
         <v>Looks at elements of SEO that affect the users’ ability to find the organisation’s website.</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C4" s="58" t="str">
         <f>FIXED('2 Summary'!B6,1)</f>
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="str">
         <f>'1 Website'!W5</f>
@@ -5415,23 +5174,23 @@
       </c>
       <c r="G4" t="str">
         <f>'1 Website'!Z5</f>
-        <v>No recommendations.</v>
+        <v xml:space="preserve">Ensure the website uses the organisation name (as well as earlier / colloquial names) in text, in a prominent way wherever relevant. Make sure the site mentions the organisation's acronym (as well as acronyms used in the past) in prominent positions and in clear text. </v>
       </c>
       <c r="H4" s="65">
         <f>'1 Website'!V5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C5" s="58" t="str">
         <f>FIXED('2 Summary'!C6,1)</f>
-        <v>4.4</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="str">
         <f>'1 Website'!W8</f>
@@ -5450,16 +5209,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="58" t="str">
         <f>FIXED('2 Summary'!D6,1)</f>
-        <v>2.5</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="str">
         <f>'1 Website'!W13</f>
@@ -5471,39 +5230,39 @@
       </c>
       <c r="G6" t="str">
         <f>'1 Website'!Z13</f>
-        <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. Ensure your robots.txt file does not disallow robots to crawl the website. Add a sitemap.xml file to the website to help search engines understand the structure of your site. </v>
+        <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. Add a sitemap.xml file to the website to help search engines understand the structure of your site. Ensure all your URLs are human-readable. A good example would be "http://www.hpb.com.sg/blog/2010/22/healthy-eating", as opposed to "http://www.hpb.com.sg/blog/?p=479". </v>
       </c>
       <c r="H6" s="65">
         <f>'1 Website'!V13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="58" t="str">
         <f>FIXED('2 Summary'!H6,1)</f>
-        <v>5.9</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="str">
         <f>'1 Website'!V29</f>
         <v>Looks at elements of usability that affect how easy a website is to navigate by its target audience groups.</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C8" s="58" t="str">
         <f>FIXED('2 Summary'!F6,1)</f>
-        <v>7.1</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="str">
         <f>'1 Website'!W22</f>
@@ -5515,23 +5274,23 @@
       </c>
       <c r="G8" t="str">
         <f>'1 Website'!Z22</f>
-        <v xml:space="preserve">Ensure all font sizes used are at least as big as or bigger than Arial font point 10.Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. </v>
+        <v>Ensure all font sizes used are at least as big as or bigger than Arial font point 10.Regularly check internal and outgoing hyperlinks to ensure they remain valid. This can be done with on-board tools of the CMS you use, or with external utilities. Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. Hyperlinks should be immediately recognisable as such. This means using colour, text decoration or other means to make them obvious.</v>
       </c>
       <c r="H8" s="65">
         <f>'1 Website'!V22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C9" s="58" t="str">
         <f>FIXED('2 Summary'!G6,1)</f>
-        <v>4.7</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="str">
         <f>'1 Website'!W28</f>
@@ -5543,39 +5302,39 @@
       </c>
       <c r="G9" t="str">
         <f>'1 Website'!Z28</f>
-        <v xml:space="preserve">Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.Make sure your site search works for all key scenarios and returns relevant results, described appropriately. Ensure your labels use your audiences' language and are clear, simple and intuitive. Consider employing responsive web design to service mobile devices. </v>
+        <v xml:space="preserve">Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.Make sure your site search works for all key scenarios and returns relevant results, described appropriately. Ensure your labels use your audiences' language and are clear, simple and intuitive. Consider employing responsive web design to service mobile devices. Have a home link on every page, allowing the user to go back to the homepage easily. </v>
       </c>
       <c r="H9" s="65">
         <f>'1 Website'!V28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C10" s="58" t="str">
         <f>FIXED('2 Summary'!M6,1)</f>
-        <v>9.1</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="str">
         <f>'1 Website'!V52</f>
         <v>Looks at the elements of quality in the content published on the website, including text and images.</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="58" t="str">
         <f>FIXED('2 Summary'!I6,1)</f>
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" t="str">
         <f>'1 Website'!W36</f>
@@ -5587,23 +5346,23 @@
       </c>
       <c r="G11" t="str">
         <f>'1 Website'!Z36</f>
-        <v>No recommendations.</v>
+        <v xml:space="preserve">Place the organisation's physical address prominently on the homepage or within one click of it. The page footer is one way of achieving this. Place the organisation's phone number prominently on the homepage or within one click of it. The page footer is one way of achieving this. Place the organisation's email address prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
       </c>
       <c r="H11" s="65">
         <f>'1 Website'!V36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C12" s="58" t="str">
         <f>FIXED('2 Summary'!J6,1)</f>
-        <v>9.3</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="str">
         <f>'1 Website'!W42</f>
@@ -5615,23 +5374,23 @@
       </c>
       <c r="G12" t="str">
         <f>'1 Website'!Z42</f>
-        <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. </v>
+        <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. Use introductory paragraphs, page titles and imagery to make immediately apparent what each page is about. Make sure the page title on its own adequately explains what the user can expect from the page. Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. Make sure your site is updated regularly. </v>
       </c>
       <c r="H12" s="65">
         <f>'1 Website'!V42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C13" s="58" t="str">
         <f>FIXED('2 Summary'!K6,1)</f>
-        <v>7.7</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="str">
         <f>'1 Website'!W46</f>
@@ -5643,23 +5402,23 @@
       </c>
       <c r="G13" t="str">
         <f>'1 Website'!Z46</f>
-        <v xml:space="preserve">Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
+        <v xml:space="preserve">Ensure your language, terminology and writing style is appropriate for your audience. Avoid passive language wherever possible. Form sentences in active language instead. Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
       </c>
       <c r="H13" s="65">
         <f>'1 Website'!V46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C14" s="58" t="str">
         <f>FIXED('2 Summary'!L6,1)</f>
-        <v>9.6</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="str">
         <f>'1 Website'!W51</f>
@@ -5671,7 +5430,7 @@
       </c>
       <c r="G14" t="str">
         <f>'1 Website'!Z51</f>
-        <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. </v>
+        <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. When inserting photos, always use JPEG or PNG format, never GIF. When inserting line drawings, diagrams and logos, always use GIF or PNG format, never JPEG. Use images that help to illustrate the content. Don't just add stock photography with little relation to the page and its subject matter. </v>
       </c>
       <c r="H14" s="65">
         <f>'1 Website'!V51</f>

--- a/Resources/Templates/Worksheets/Website Assessment.xlsx
+++ b/Resources/Templates/Worksheets/Website Assessment.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ken.tung\Documents\Visual Studio 2012\Projects\asp\MCIFramework\bin\Release\Resources\Templates\Worksheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="0 Assessment parameters" sheetId="7" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="2 Summary" sheetId="6" r:id="rId3"/>
     <sheet name="3 Data for upload" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +29,7 @@
     <author>Tom Voirol</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0">
+    <comment ref="B44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="1" shapeId="0">
+    <comment ref="B45" authorId="1">
       <text>
         <r>
           <rPr>
@@ -127,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P45" authorId="2" shapeId="0">
+    <comment ref="P45" authorId="2">
       <text>
         <r>
           <rPr>
@@ -156,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="203">
   <si>
     <t>Attributes</t>
   </si>
@@ -393,6 +388,102 @@
     <t>Technical SEO</t>
   </si>
   <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/home.html</t>
+  </si>
+  <si>
+    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/about_us/our_organisation/vision_mission_values.html</t>
+  </si>
+  <si>
+    <t>Personal Data Protection Bill</t>
+  </si>
+  <si>
+    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/personal_data_protectionbill.html</t>
+  </si>
+  <si>
+    <t>Press Room</t>
+  </si>
+  <si>
+    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/pressroom.html</t>
+  </si>
+  <si>
+    <t>Job vacancies</t>
+  </si>
+  <si>
+    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/careers/job_vacancies.html</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>http://www.mci.gov.sg/content/mci_corp/web/mci/careers.html</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>How do I set up base in Singapore?</t>
+  </si>
+  <si>
+    <t>seting up base in Singapore</t>
+  </si>
+  <si>
+    <t>What is the latest news announcement from MCI?</t>
+  </si>
+  <si>
+    <t>MCI news</t>
+  </si>
+  <si>
+    <t>What is the Internet regulation in Singapore?</t>
+  </si>
+  <si>
+    <t>Singapore Internet regulation</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>What is the Singapore Infocomm Media Masterplan for the next 10 years?</t>
+  </si>
+  <si>
+    <t>Singapore Infocomm Media Masterplan</t>
+  </si>
+  <si>
+    <t>What did the minister announce in the last budget debate?</t>
+  </si>
+  <si>
+    <t>budget debate Singapore</t>
+  </si>
+  <si>
+    <t>How can the Internet Content Code affect what I can put up on my business?</t>
+  </si>
+  <si>
+    <t>Singapore Internet Content Code</t>
+  </si>
+  <si>
+    <t>Academics and/or Students</t>
+  </si>
+  <si>
+    <t>What is the ministry's policy position on online news site?</t>
+  </si>
+  <si>
+    <t>MCI policy position on news site</t>
+  </si>
+  <si>
+    <t>What are the career options in MCI?</t>
+  </si>
+  <si>
+    <t>MCI career</t>
+  </si>
+  <si>
+    <t>What did the minister say about opportunities in ICT?</t>
+  </si>
+  <si>
+    <t>opportunities in ICT</t>
+  </si>
+  <si>
     <t>By organisation name:</t>
   </si>
   <si>
@@ -412,6 +503,12 @@
   </si>
   <si>
     <t>Organisation name</t>
+  </si>
+  <si>
+    <t>Acronym</t>
+  </si>
+  <si>
+    <t>MCI</t>
   </si>
   <si>
     <t>Ministry of Communications and Information</t>
@@ -1221,6 +1318,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,9 +1331,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1238,9 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1757,63 +1854,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="89.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="50" t="s">
+        <v>117</v>
+      </c>
       <c r="B1" s="50" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C1" s="50"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+    <row r="2" spans="1:3">
+      <c r="A2" s="54" t="s">
+        <v>118</v>
+      </c>
       <c r="B2" s="54" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C2" s="50"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="50"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1830,99 +2071,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFF79646"/>
   </sheetPr>
   <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="P45" sqref="P45:T45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="6.625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="1.625" style="27" customWidth="1"/>
-    <col min="15" max="21" width="6.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="29.125" customWidth="1"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="13.375" customWidth="1"/>
-    <col min="25" max="25" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="12" width="6.6640625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="27" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" style="27" customWidth="1"/>
+    <col min="15" max="21" width="6.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="29.1640625" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" customWidth="1"/>
     <col min="26" max="26" width="21.5" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="68" t="s">
+    <row r="1" spans="1:26">
+      <c r="C1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="70" t="s">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="66" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="40"/>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="69" t="s">
+      <c r="P1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z1" s="72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
@@ -1950,23 +2191,23 @@
       <c r="L2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="68"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="41"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="72"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="67"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -1974,7 +2215,7 @@
       </c>
       <c r="C3" s="33">
         <f>IF(O3=1,10,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1988,7 +2229,7 @@
       <c r="M3" s="30"/>
       <c r="N3" s="42"/>
       <c r="O3" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
@@ -2000,21 +2241,21 @@
       <c r="W3" s="59"/>
       <c r="X3" s="59"/>
       <c r="Y3" s="27" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="Z3" s="60" t="str">
         <f>IF(C3&lt;10,Y3,"")</f>
-        <v xml:space="preserve">Ensure the website uses the organisation name (as well as earlier / colloquial names) in text, in a prominent way wherever relevant. </v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="69"/>
       <c r="B4" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="33">
         <f>IF(O4=1,10,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2028,7 +2269,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="42"/>
       <c r="O4" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -2040,21 +2281,21 @@
       <c r="W4" s="59"/>
       <c r="X4" s="59"/>
       <c r="Y4" s="27" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="Z4" s="60" t="str">
         <f>IF(C4&lt;10,Y4,"")</f>
-        <v xml:space="preserve">Make sure the site mentions the organisation's acronym (as well as acronyms used in the past) in prominent positions and in clear text. </v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="69"/>
       <c r="B5" s="17" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C5" s="39">
         <f>AVERAGE(C3:C4)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -2076,37 +2317,37 @@
       <c r="U5" s="16"/>
       <c r="V5" s="62"/>
       <c r="W5" s="59" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="X5" s="59" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="Y5" s="59"/>
       <c r="Z5" s="61" t="str">
         <f>IF(INT(C5)&lt;10,CONCATENATE(Z3,Z4),"No recommendations.")</f>
-        <v xml:space="preserve">Ensure the website uses the organisation name (as well as earlier / colloquial names) in text, in a prominent way wherever relevant. Make sure the site mentions the organisation's acronym (as well as acronyms used in the past) in prominent positions and in clear text. </v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+        <v>No recommendations.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="69"/>
       <c r="B6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="33">
         <f>M6</f>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="D6" s="51">
         <v>0</v>
       </c>
       <c r="E6" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="52">
         <v>0</v>
       </c>
       <c r="G6" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="53">
         <v>0</v>
@@ -2115,17 +2356,17 @@
         <v>0</v>
       </c>
       <c r="J6" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="52">
         <v>0</v>
       </c>
       <c r="M6" s="12">
         <f>AVERAGE(D6:L6)*10</f>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="14"/>
@@ -2136,26 +2377,26 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+    <row r="7" spans="1:26">
+      <c r="A7" s="69"/>
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="33">
         <f>M7</f>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="D7" s="51">
         <v>0</v>
       </c>
       <c r="E7" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="52">
         <v>0</v>
       </c>
       <c r="G7" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="53">
         <v>0</v>
@@ -2164,17 +2405,17 @@
         <v>0</v>
       </c>
       <c r="J7" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="52">
         <v>0</v>
       </c>
       <c r="M7" s="12">
         <f>AVERAGE(D7:L7)*10</f>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="N7" s="42"/>
       <c r="O7" s="14"/>
@@ -2185,14 +2426,14 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+    <row r="8" spans="1:26">
+      <c r="A8" s="69"/>
       <c r="B8" s="17" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C8" s="39">
         <f>AVERAGE(C6:C7)</f>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -2214,21 +2455,21 @@
       <c r="U8" s="16"/>
       <c r="V8" s="63"/>
       <c r="W8" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="X8" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="Y8" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="Z8" s="61" t="str">
         <f>IF(INT(C8)&lt;10,Y8,"No recommendations.")</f>
         <v>Through research, identify the commonly used keywords that your top audience groups are likely to use in a search when trying to find information about or content from your organisation. Ensure that you use those keywords prominently in the copy of your content.</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+    <row r="9" spans="1:26">
+      <c r="A9" s="69"/>
       <c r="B9" s="9" t="s">
         <v>73</v>
       </c>
@@ -2257,21 +2498,21 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="Z9" s="60" t="str">
         <f>IF(C9&lt;10,Y9,"")</f>
         <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. </v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+    <row r="10" spans="1:26">
+      <c r="A10" s="69"/>
       <c r="B10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="33" t="str">
-        <f>IF(C9=0,"NA",IF(O10=1,10,0))</f>
-        <v>NA</v>
+      <c r="C10" s="33">
+        <f>IF(O10=1,10,0)</f>
+        <v>0</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2294,15 +2535,15 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="Z10" s="60" t="str">
         <f>IF(C10&lt;10,Y10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+        <v xml:space="preserve">Ensure your robots.txt file does not disallow robots to crawl the website. </v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="69"/>
       <c r="B11" s="9" t="s">
         <v>75</v>
       </c>
@@ -2331,21 +2572,21 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="Z11" s="60" t="str">
         <f>IF(C11&lt;10,Y11,"")</f>
         <v xml:space="preserve">Add a sitemap.xml file to the website to help search engines understand the structure of your site. </v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+    <row r="12" spans="1:26">
+      <c r="A12" s="69"/>
       <c r="B12" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="33">
         <f>U12</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2359,43 +2600,43 @@
       <c r="M12" s="30"/>
       <c r="N12" s="42"/>
       <c r="O12" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="10">
         <f>AVERAGE(O12:T12)*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="Z12" s="60" t="str">
         <f>IF(C12&lt;10,Y12,"")</f>
-        <v xml:space="preserve">Ensure all your URLs are human-readable. A good example would be "http://www.hpb.com.sg/blog/2010/22/healthy-eating", as opposed to "http://www.hpb.com.sg/blog/?p=479". </v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="69"/>
       <c r="B13" s="17" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C13" s="39">
         <f>SUM(C9:C12)/COUNTIF(C9:C12,"&lt;&gt;NA")</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2417,24 +2658,24 @@
       <c r="U13" s="48"/>
       <c r="V13" s="63"/>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="Z13" s="61" t="str">
         <f>IF(INT(C13)&lt;10,CONCATENATE(Z9,Z10,Z11,Z12),"No recommendations.")</f>
-        <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. Add a sitemap.xml file to the website to help search engines understand the structure of your site. Ensure all your URLs are human-readable. A good example would be "http://www.hpb.com.sg/blog/2010/22/healthy-eating", as opposed to "http://www.hpb.com.sg/blog/?p=479". </v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. Ensure your robots.txt file does not disallow robots to crawl the website. Add a sitemap.xml file to the website to help search engines understand the structure of your site. </v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="13">
         <f>AVERAGE(C5,C8,C13)</f>
-        <v>0</v>
+        <v>5.6481481481481479</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="8"/>
@@ -2449,10 +2690,10 @@
       <c r="N14" s="40"/>
       <c r="U14" s="8"/>
       <c r="W14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="7"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -2464,7 +2705,7 @@
       <c r="I15" s="28"/>
       <c r="N15" s="40"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="7"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -2476,7 +2717,7 @@
       <c r="I16" s="28"/>
       <c r="N16" s="40"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="7"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -2488,8 +2729,8 @@
       <c r="I17" s="28"/>
       <c r="N17" s="40"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+    <row r="18" spans="1:26">
+      <c r="A18" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2530,15 +2771,15 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="Z18" s="60" t="str">
         <f>IF(U18&lt;10,Y18,"")</f>
         <v>Ensure all font sizes used are at least as big as or bigger than Arial font point 10.</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+    <row r="19" spans="1:26">
+      <c r="A19" s="68"/>
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
@@ -2555,37 +2796,37 @@
       <c r="M19" s="30"/>
       <c r="N19" s="40"/>
       <c r="O19" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="10">
         <f t="shared" ref="U19:U21" si="0">AVERAGE(O19:T19)*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="Z19" s="60" t="str">
         <f>IF(U19&lt;10,Y19,"")</f>
-        <v xml:space="preserve">Regularly check internal and outgoing hyperlinks to ensure they remain valid. This can be done with on-board tools of the CMS you use, or with external utilities. </v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="68"/>
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -2602,37 +2843,37 @@
       <c r="M20" s="30"/>
       <c r="N20" s="40"/>
       <c r="O20" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="52">
         <v>0</v>
       </c>
       <c r="R20" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Y20" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="Z20" s="60" t="str">
         <f>IF(U20&lt;10,Y20,"")</f>
         <v xml:space="preserve">Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. </v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:26">
+      <c r="A21" s="68"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
@@ -2649,43 +2890,43 @@
       <c r="M21" s="30"/>
       <c r="N21" s="40"/>
       <c r="O21" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="Z21" s="60" t="str">
         <f>IF(U21&lt;10,Y21,"")</f>
-        <v>Hyperlinks should be immediately recognisable as such. This means using colour, text decoration or other means to make them obvious.</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="68"/>
       <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="39">
         <f>U22</f>
-        <v>0</v>
+        <v>7.0833333333333339</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2706,22 +2947,22 @@
       <c r="T22" s="16"/>
       <c r="U22" s="35">
         <f>AVERAGE(U18:U21)</f>
-        <v>0</v>
+        <v>7.0833333333333339</v>
       </c>
       <c r="V22" s="63"/>
       <c r="W22" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="X22" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="Z22" s="61" t="str">
         <f>IF(INT(C22)&lt;10,CONCATENATE(Z18,Z19,Z20,Z21),"No recommendations.")</f>
-        <v>Ensure all font sizes used are at least as big as or bigger than Arial font point 10.Regularly check internal and outgoing hyperlinks to ensure they remain valid. This can be done with on-board tools of the CMS you use, or with external utilities. Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. Hyperlinks should be immediately recognisable as such. This means using colour, text decoration or other means to make them obvious.</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
+        <v xml:space="preserve">Ensure all font sizes used are at least as big as or bigger than Arial font point 10.Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. </v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="68"/>
       <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
@@ -2730,32 +2971,32 @@
         <v>0</v>
       </c>
       <c r="E23" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="52">
         <v>0</v>
       </c>
       <c r="G23" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="53">
         <v>0</v>
       </c>
       <c r="J23" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="33">
         <f>AVERAGE(D23:L23)*10</f>
-        <v>0</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="14"/>
@@ -2766,15 +3007,15 @@
       <c r="T23" s="14"/>
       <c r="U23" s="32"/>
       <c r="Y23" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="Z23" s="60" t="str">
         <f>IF(M23&lt;10,Y23,"")</f>
         <v>Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
+    <row r="24" spans="1:26">
+      <c r="A24" s="68"/>
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
@@ -2783,32 +3024,32 @@
         <v>0</v>
       </c>
       <c r="E24" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="52">
         <v>0</v>
       </c>
       <c r="G24" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="53">
         <v>0</v>
       </c>
       <c r="J24" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="33">
         <f>AVERAGE(D24:L24)*10</f>
-        <v>0</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="14"/>
@@ -2819,15 +3060,15 @@
       <c r="T24" s="14"/>
       <c r="U24" s="32"/>
       <c r="Y24" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="Z24" s="60" t="str">
         <f>IF(M24&lt;10,Y24,"")</f>
         <v xml:space="preserve">Make sure your site search works for all key scenarios and returns relevant results, described appropriately. </v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+    <row r="25" spans="1:26">
+      <c r="A25" s="68"/>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2856,15 +3097,15 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="Z25" s="60" t="str">
         <f t="shared" ref="Z25:Z26" si="2">IF(U25&lt;10,Y25,"")</f>
         <v xml:space="preserve">Ensure your labels use your audiences' language and are clear, simple and intuitive. </v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+    <row r="26" spans="1:26">
+      <c r="A26" s="68"/>
       <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2893,15 +3134,15 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Z26" s="60" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Consider employing responsive web design to service mobile devices. </v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:26">
+      <c r="A27" s="68"/>
       <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
@@ -2919,40 +3160,40 @@
       <c r="N27" s="40"/>
       <c r="O27" s="14"/>
       <c r="P27" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y27" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="Z27" s="60" t="str">
         <f>IF(U27&lt;10,Y27,"")</f>
-        <v xml:space="preserve">Have a home link on every page, allowing the user to go back to the homepage easily. </v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="68"/>
       <c r="B28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="39">
         <f>U28</f>
-        <v>0</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -2973,28 +3214,28 @@
       <c r="T28" s="16"/>
       <c r="U28" s="35">
         <f>AVERAGE(M23:M24,U25:U27)</f>
-        <v>0</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="V28" s="63"/>
       <c r="W28" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="X28" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="Z28" s="61" t="str">
         <f>IF(INT(C28)&lt;10,CONCATENATE(Z23,Z24,Z25,Z26,Z27),"No recommendations.")</f>
-        <v xml:space="preserve">Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.Make sure your site search works for all key scenarios and returns relevant results, described appropriately. Ensure your labels use your audiences' language and are clear, simple and intuitive. Consider employing responsive web design to service mobile devices. Have a home link on every page, allowing the user to go back to the homepage easily. </v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
+        <v xml:space="preserve">Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.Make sure your site search works for all key scenarios and returns relevant results, described appropriately. Ensure your labels use your audiences' language and are clear, simple and intuitive. Consider employing responsive web design to service mobile devices. </v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="68"/>
       <c r="B29" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="13">
         <f>AVERAGE(C22,C28)</f>
-        <v>0</v>
+        <v>5.875</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -3004,10 +3245,10 @@
       <c r="I29" s="28"/>
       <c r="N29" s="40"/>
       <c r="V29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="6"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -3017,7 +3258,7 @@
       <c r="I30" s="28"/>
       <c r="N30" s="40"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="6"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
@@ -3027,7 +3268,7 @@
       <c r="I31" s="28"/>
       <c r="N31" s="40"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="6"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -3037,8 +3278,8 @@
       <c r="I32" s="28"/>
       <c r="N32" s="40"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="69" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3057,7 +3298,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="40"/>
       <c r="O33" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -3066,18 +3307,18 @@
       <c r="T33" s="14"/>
       <c r="U33" s="1">
         <f t="shared" ref="U33:U35" si="3">O33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="Z33" s="60" t="str">
         <f>IF(C33&lt;10,Y33,"")</f>
         <v xml:space="preserve">Place the organisation's physical address prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
+    <row r="34" spans="1:26">
+      <c r="A34" s="69"/>
       <c r="B34" s="5" t="s">
         <v>52</v>
       </c>
@@ -3094,7 +3335,7 @@
       <c r="M34" s="30"/>
       <c r="N34" s="40"/>
       <c r="O34" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
@@ -3103,18 +3344,18 @@
       <c r="T34" s="14"/>
       <c r="U34" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="Z34" s="60" t="str">
         <f>IF(C34&lt;10,Y34,"")</f>
         <v xml:space="preserve">Place the organisation's phone number prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+    <row r="35" spans="1:26">
+      <c r="A35" s="69"/>
       <c r="B35" s="5" t="s">
         <v>51</v>
       </c>
@@ -3131,7 +3372,7 @@
       <c r="M35" s="30"/>
       <c r="N35" s="40"/>
       <c r="O35" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
@@ -3140,24 +3381,24 @@
       <c r="T35" s="14"/>
       <c r="U35" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Z35" s="60" t="str">
         <f>IF(C35&lt;10,Y35,"")</f>
         <v xml:space="preserve">Place the organisation's email address prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+    <row r="36" spans="1:26">
+      <c r="A36" s="69"/>
       <c r="B36" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="12">
         <f>U36</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -3178,22 +3419,22 @@
       <c r="T36" s="16"/>
       <c r="U36" s="12">
         <f>AVERAGE(U33:U35)*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V36" s="63"/>
       <c r="W36" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="X36" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="Z36" s="61" t="str">
         <f>IF(INT(C36)&lt;10,CONCATENATE(Z33,Z34,Z35),"No recommendations.")</f>
-        <v xml:space="preserve">Place the organisation's physical address prominently on the homepage or within one click of it. The page footer is one way of achieving this. Place the organisation's phone number prominently on the homepage or within one click of it. The page footer is one way of achieving this. Place the organisation's email address prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+        <v>No recommendations.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="69"/>
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
@@ -3210,37 +3451,37 @@
       <c r="M37" s="30"/>
       <c r="N37" s="40"/>
       <c r="O37" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="52">
         <v>0</v>
       </c>
       <c r="R37" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="10">
         <f>SUM(O37:T37)/6*10</f>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Y37" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="Z37" s="60" t="str">
         <f>IF(U37&lt;10,Y37,"")</f>
         <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. </v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+    <row r="38" spans="1:26">
+      <c r="A38" s="69"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
@@ -3257,37 +3498,37 @@
       <c r="M38" s="30"/>
       <c r="N38" s="40"/>
       <c r="O38" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="10">
         <f>SUM(O38:T38)/6*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y38" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="Z38" s="60" t="str">
         <f t="shared" ref="Z38:Z41" si="4">IF(U38&lt;10,Y38,"")</f>
-        <v xml:space="preserve">Use introductory paragraphs, page titles and imagery to make immediately apparent what each page is about. </v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="69"/>
       <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
@@ -3304,37 +3545,37 @@
       <c r="M39" s="30"/>
       <c r="N39" s="40"/>
       <c r="O39" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="10">
         <f>SUM(O39:T39)/6*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="Z39" s="60" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Make sure the page title on its own adequately explains what the user can expect from the page. </v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="69"/>
       <c r="B40" s="5" t="s">
         <v>60</v>
       </c>
@@ -3354,34 +3595,34 @@
         <v>0</v>
       </c>
       <c r="P40" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="10">
         <f>SUM(O40:T40)/6*10</f>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Y40" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="Z40" s="60" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. </v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+    <row r="41" spans="1:26">
+      <c r="A41" s="69"/>
       <c r="B41" s="19" t="s">
         <v>42</v>
       </c>
@@ -3398,7 +3639,7 @@
       <c r="M41" s="30"/>
       <c r="N41" s="40"/>
       <c r="O41" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -3407,24 +3648,24 @@
       <c r="T41" s="14"/>
       <c r="U41" s="1">
         <f>IF(O41=1,10,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="Z41" s="60" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Make sure your site is updated regularly. </v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="69"/>
       <c r="B42" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="39">
         <f>U42</f>
-        <v>0</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -3445,22 +3686,22 @@
       <c r="T42" s="16"/>
       <c r="U42" s="35">
         <f>AVERAGE(U37:U41)</f>
-        <v>0</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="V42" s="63"/>
       <c r="W42" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="X42" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Z42" s="61" t="str">
         <f>IF(INT(C42)&lt;10,CONCATENATE(Z37,Z38,Z39,Z40,Z41),"No recommendations.")</f>
-        <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. Use introductory paragraphs, page titles and imagery to make immediately apparent what each page is about. Make sure the page title on its own adequately explains what the user can expect from the page. Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. Make sure your site is updated regularly. </v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+        <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. </v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="69"/>
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -3477,34 +3718,34 @@
       <c r="N43" s="40"/>
       <c r="O43" s="14"/>
       <c r="P43" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="10">
         <f>SUM(O43:T43)/5*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="Z43" s="60" t="str">
         <f t="shared" ref="Z43:Z44" si="5">IF(U43&lt;10,Y43,"")</f>
-        <v xml:space="preserve">Ensure your language, terminology and writing style is appropriate for your audience. </v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="69"/>
       <c r="B44" s="64" t="s">
         <v>44</v>
       </c>
@@ -3521,34 +3762,34 @@
       <c r="N44" s="40"/>
       <c r="O44" s="14"/>
       <c r="P44" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="10">
         <f>SUM(O44:T44)/5*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y44" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="Z44" s="60" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">Avoid passive language wherever possible. Form sentences in active language instead. </v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="69"/>
       <c r="B45" s="64" t="s">
         <v>72</v>
       </c>
@@ -3565,40 +3806,40 @@
       <c r="N45" s="40"/>
       <c r="O45" s="14"/>
       <c r="P45" s="53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R45" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U45" s="10">
         <f>AVERAGE(P45:T45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="Z45" s="60" t="str">
         <f>IF(U45&lt;10,Y45,"")</f>
         <v xml:space="preserve">Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+    <row r="46" spans="1:26">
+      <c r="A46" s="69"/>
       <c r="B46" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="12">
         <f>U46</f>
-        <v>0</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -3619,22 +3860,22 @@
       <c r="T46" s="16"/>
       <c r="U46" s="12">
         <f>AVERAGE(U43:U45)</f>
-        <v>0</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="V46" s="63"/>
       <c r="W46" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="X46" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="Z46" s="61" t="str">
         <f>IF(INT(C46)&lt;10,CONCATENATE(Z43,Z44,Z45),"No recommendations.")</f>
-        <v xml:space="preserve">Ensure your language, terminology and writing style is appropriate for your audience. Avoid passive language wherever possible. Form sentences in active language instead. Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+        <v xml:space="preserve">Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="69"/>
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -3653,34 +3894,34 @@
         <v>0</v>
       </c>
       <c r="P47" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="10">
         <f>SUM(O47:T47)/6*10</f>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Y47" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="Z47" s="60" t="str">
         <f t="shared" ref="Z47:Z49" si="6">IF(U47&lt;10,Y47,"")</f>
         <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. </v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+    <row r="48" spans="1:26">
+      <c r="A48" s="69"/>
       <c r="B48" t="s">
         <v>63</v>
       </c>
@@ -3696,37 +3937,37 @@
       <c r="M48" s="30"/>
       <c r="N48" s="40"/>
       <c r="O48" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10">
         <f t="shared" ref="U48:U50" si="7">SUM(O48:T48)/6*10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y48" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="Z48" s="60" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">When inserting photos, always use JPEG or PNG format, never GIF. </v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="69"/>
       <c r="B49" t="s">
         <v>62</v>
       </c>
@@ -3742,37 +3983,37 @@
       <c r="M49" s="30"/>
       <c r="N49" s="40"/>
       <c r="O49" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y49" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="Z49" s="60" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">When inserting line drawings, diagrams and logos, always use GIF or PNG format, never JPEG. </v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="69"/>
       <c r="B50" t="s">
         <v>45</v>
       </c>
@@ -3788,43 +4029,43 @@
       <c r="M50" s="30"/>
       <c r="N50" s="40"/>
       <c r="O50" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y50" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="Z50" s="60" t="str">
         <f>IF(U50&lt;10,Y50,"")</f>
-        <v xml:space="preserve">Use images that help to illustrate the content. Don't just add stock photography with little relation to the page and its subject matter. </v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="69"/>
       <c r="B51" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="12">
         <f>U51</f>
-        <v>0</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
@@ -3845,28 +4086,28 @@
       <c r="T51" s="16"/>
       <c r="U51" s="12">
         <f>AVERAGE(U47:U50)</f>
-        <v>0</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="V51" s="63"/>
       <c r="W51" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="X51" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="Z51" s="61" t="str">
         <f>IF(INT(C51)&lt;10,CONCATENATE(Z47,Z48,Z49,Z50),"No recommendations.")</f>
-        <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. When inserting photos, always use JPEG or PNG format, never GIF. When inserting line drawings, diagrams and logos, always use GIF or PNG format, never JPEG. Use images that help to illustrate the content. Don't just add stock photography with little relation to the page and its subject matter. </v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+        <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. </v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="69"/>
       <c r="B52" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="13">
         <f>AVERAGE(C36,C42,C46,C51)</f>
-        <v>0</v>
+        <v>9.1458333333333339</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
@@ -3877,10 +4118,10 @@
       <c r="N52" s="40"/>
       <c r="U52" s="36"/>
       <c r="V52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="6"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
@@ -3889,7 +4130,7 @@
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="6"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -3898,7 +4139,7 @@
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -3906,7 +4147,7 @@
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -3914,7 +4155,7 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -3922,7 +4163,7 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -3930,7 +4171,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -3938,7 +4179,7 @@
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -3946,7 +4187,7 @@
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -3954,7 +4195,7 @@
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -3962,7 +4203,7 @@
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
@@ -3970,7 +4211,7 @@
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
@@ -3978,7 +4219,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9">
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -3986,7 +4227,7 @@
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9">
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -3994,7 +4235,7 @@
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9">
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -4002,7 +4243,7 @@
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9">
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -4010,7 +4251,7 @@
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9">
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -4018,7 +4259,7 @@
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:9">
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -4026,7 +4267,7 @@
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:9">
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -4034,7 +4275,7 @@
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9">
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -4042,7 +4283,7 @@
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9">
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
@@ -4050,7 +4291,7 @@
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9">
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -4058,7 +4299,7 @@
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9">
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -4066,7 +4307,7 @@
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:9">
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -4074,7 +4315,7 @@
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:9">
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -4082,7 +4323,7 @@
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:9">
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -4090,7 +4331,7 @@
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:9">
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -4098,7 +4339,7 @@
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:9">
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
@@ -4106,7 +4347,7 @@
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9">
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
@@ -4114,7 +4355,7 @@
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9">
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
@@ -4122,7 +4363,7 @@
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:9">
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
@@ -4130,7 +4371,7 @@
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9">
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -4138,7 +4379,7 @@
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9">
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -4146,7 +4387,7 @@
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9">
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
@@ -4154,7 +4395,7 @@
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9">
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -4162,7 +4403,7 @@
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9">
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -4170,7 +4411,7 @@
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:9">
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -4178,7 +4419,7 @@
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:9">
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -4186,7 +4427,7 @@
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:9">
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -4194,7 +4435,7 @@
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:9">
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -4202,7 +4443,7 @@
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:9">
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -4210,7 +4451,7 @@
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:9">
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -4218,7 +4459,7 @@
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:9">
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -4226,7 +4467,7 @@
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:9">
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -4234,7 +4475,7 @@
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:9">
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -4242,7 +4483,7 @@
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:9">
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
@@ -4250,7 +4491,7 @@
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:9">
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -4258,7 +4499,7 @@
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:9">
       <c r="D100" s="28"/>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
@@ -4266,7 +4507,7 @@
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:9">
       <c r="D101" s="28"/>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
@@ -4274,7 +4515,7 @@
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:9">
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
@@ -4282,7 +4523,7 @@
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:9">
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
@@ -4290,7 +4531,7 @@
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:9">
       <c r="D104" s="28"/>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
@@ -4298,7 +4539,7 @@
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:9">
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
@@ -4306,7 +4547,7 @@
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:9">
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
@@ -4314,7 +4555,7 @@
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
     </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:9">
       <c r="D107" s="28"/>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
@@ -4322,7 +4563,7 @@
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
     </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:9">
       <c r="D108" s="28"/>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
@@ -4330,7 +4571,7 @@
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
     </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:9">
       <c r="D109" s="28"/>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
@@ -4338,7 +4579,7 @@
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
     </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:9">
       <c r="D110" s="28"/>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
@@ -4346,7 +4587,7 @@
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
     </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:9">
       <c r="D111" s="28"/>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
@@ -4354,7 +4595,7 @@
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
     </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:9">
       <c r="D112" s="28"/>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
@@ -4362,7 +4603,7 @@
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
     </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:9">
       <c r="D113" s="28"/>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
@@ -4370,7 +4611,7 @@
       <c r="H113" s="28"/>
       <c r="I113" s="28"/>
     </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:9">
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
@@ -4378,7 +4619,7 @@
       <c r="H114" s="28"/>
       <c r="I114" s="28"/>
     </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:9">
       <c r="D115" s="28"/>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
@@ -4386,7 +4627,7 @@
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
     </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:9">
       <c r="D116" s="28"/>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
@@ -4394,7 +4635,7 @@
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
     </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:9">
       <c r="D117" s="28"/>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
@@ -4402,7 +4643,7 @@
       <c r="H117" s="28"/>
       <c r="I117" s="28"/>
     </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:9">
       <c r="D118" s="28"/>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
@@ -4410,7 +4651,7 @@
       <c r="H118" s="28"/>
       <c r="I118" s="28"/>
     </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:9">
       <c r="D119" s="28"/>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
@@ -4418,7 +4659,7 @@
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
     </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:9">
       <c r="D120" s="28"/>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
@@ -4426,7 +4667,7 @@
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
     </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:9">
       <c r="D121" s="28"/>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -4434,7 +4675,7 @@
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
     </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:9">
       <c r="D122" s="28"/>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -4442,7 +4683,7 @@
       <c r="H122" s="28"/>
       <c r="I122" s="28"/>
     </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:9">
       <c r="D123" s="28"/>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -4450,7 +4691,7 @@
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
     </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:9">
       <c r="D124" s="28"/>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -4458,7 +4699,7 @@
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
     </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:9">
       <c r="D125" s="28"/>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
@@ -4466,7 +4707,7 @@
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
     </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:9">
       <c r="D126" s="28"/>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
@@ -4474,7 +4715,7 @@
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
     </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:9">
       <c r="D127" s="28"/>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
@@ -4482,7 +4723,7 @@
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
     </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:9">
       <c r="D128" s="28"/>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -4490,7 +4731,7 @@
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
     </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:9">
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
@@ -4498,7 +4739,7 @@
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
     </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:9">
       <c r="D130" s="28"/>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
@@ -4506,7 +4747,7 @@
       <c r="H130" s="28"/>
       <c r="I130" s="28"/>
     </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:9">
       <c r="D131" s="28"/>
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
@@ -4514,7 +4755,7 @@
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
     </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:9">
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
@@ -4522,7 +4763,7 @@
       <c r="H132" s="28"/>
       <c r="I132" s="28"/>
     </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:9">
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
@@ -4530,7 +4771,7 @@
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
     </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:9">
       <c r="D134" s="28"/>
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
@@ -4538,7 +4779,7 @@
       <c r="H134" s="28"/>
       <c r="I134" s="28"/>
     </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:9">
       <c r="D135" s="28"/>
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
@@ -4546,7 +4787,7 @@
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
     </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:9">
       <c r="D136" s="28"/>
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
@@ -4554,7 +4795,7 @@
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
     </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:9">
       <c r="D137" s="28"/>
       <c r="E137" s="28"/>
       <c r="F137" s="28"/>
@@ -4562,7 +4803,7 @@
       <c r="H137" s="28"/>
       <c r="I137" s="28"/>
     </row>
-    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:9">
       <c r="D138" s="28"/>
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
@@ -4570,7 +4811,7 @@
       <c r="H138" s="28"/>
       <c r="I138" s="28"/>
     </row>
-    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:9">
       <c r="D139" s="28"/>
       <c r="E139" s="28"/>
       <c r="F139" s="28"/>
@@ -4578,7 +4819,7 @@
       <c r="H139" s="28"/>
       <c r="I139" s="28"/>
     </row>
-    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:9">
       <c r="D140" s="28"/>
       <c r="E140" s="28"/>
       <c r="F140" s="28"/>
@@ -4586,7 +4827,7 @@
       <c r="H140" s="28"/>
       <c r="I140" s="28"/>
     </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:9">
       <c r="D141" s="28"/>
       <c r="E141" s="28"/>
       <c r="F141" s="28"/>
@@ -4594,7 +4835,7 @@
       <c r="H141" s="28"/>
       <c r="I141" s="28"/>
     </row>
-    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:9">
       <c r="D142" s="28"/>
       <c r="E142" s="28"/>
       <c r="F142" s="28"/>
@@ -4602,7 +4843,7 @@
       <c r="H142" s="28"/>
       <c r="I142" s="28"/>
     </row>
-    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:9">
       <c r="D143" s="28"/>
       <c r="E143" s="28"/>
       <c r="F143" s="28"/>
@@ -4610,7 +4851,7 @@
       <c r="H143" s="28"/>
       <c r="I143" s="28"/>
     </row>
-    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:9">
       <c r="D144" s="28"/>
       <c r="E144" s="28"/>
       <c r="F144" s="28"/>
@@ -4618,7 +4859,7 @@
       <c r="H144" s="28"/>
       <c r="I144" s="28"/>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9">
       <c r="D145" s="28"/>
       <c r="E145" s="28"/>
       <c r="F145" s="28"/>
@@ -4626,7 +4867,7 @@
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9">
       <c r="D146" s="28"/>
       <c r="E146" s="28"/>
       <c r="F146" s="28"/>
@@ -4634,7 +4875,7 @@
       <c r="H146" s="28"/>
       <c r="I146" s="28"/>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9">
       <c r="D147" s="28"/>
       <c r="E147" s="28"/>
       <c r="F147" s="28"/>
@@ -4642,7 +4883,7 @@
       <c r="H147" s="28"/>
       <c r="I147" s="28"/>
     </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9">
       <c r="D148" s="28"/>
       <c r="E148" s="28"/>
       <c r="F148" s="28"/>
@@ -4650,7 +4891,7 @@
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
     </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9">
       <c r="D149" s="28"/>
       <c r="E149" s="28"/>
       <c r="F149" s="28"/>
@@ -4658,7 +4899,7 @@
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
     </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9">
       <c r="D150" s="28"/>
       <c r="E150" s="28"/>
       <c r="F150" s="28"/>
@@ -4666,7 +4907,7 @@
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
     </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9">
       <c r="D151" s="28"/>
       <c r="E151" s="28"/>
       <c r="F151" s="28"/>
@@ -4674,7 +4915,7 @@
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
     </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9">
       <c r="D152" s="28"/>
       <c r="E152" s="28"/>
       <c r="F152" s="28"/>
@@ -4682,7 +4923,7 @@
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
     </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:9">
       <c r="D153" s="28"/>
       <c r="E153" s="28"/>
       <c r="F153" s="28"/>
@@ -4690,7 +4931,7 @@
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
     </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9">
       <c r="D154" s="28"/>
       <c r="E154" s="28"/>
       <c r="F154" s="28"/>
@@ -4698,7 +4939,7 @@
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
     </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:9">
       <c r="D155" s="28"/>
       <c r="E155" s="28"/>
       <c r="F155" s="28"/>
@@ -4706,7 +4947,7 @@
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
     </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:9">
       <c r="D156" s="28"/>
       <c r="E156" s="28"/>
       <c r="F156" s="28"/>
@@ -4714,7 +4955,7 @@
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
     </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:9">
       <c r="D157" s="28"/>
       <c r="E157" s="28"/>
       <c r="F157" s="28"/>
@@ -4722,7 +4963,7 @@
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
     </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:9">
       <c r="D158" s="28"/>
       <c r="E158" s="28"/>
       <c r="F158" s="28"/>
@@ -4730,7 +4971,7 @@
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
     </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:9">
       <c r="D159" s="28"/>
       <c r="E159" s="28"/>
       <c r="F159" s="28"/>
@@ -4738,7 +4979,7 @@
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
     </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:9">
       <c r="D160" s="28"/>
       <c r="E160" s="28"/>
       <c r="F160" s="28"/>
@@ -4746,7 +4987,7 @@
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
     </row>
-    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:9">
       <c r="D161" s="28"/>
       <c r="E161" s="28"/>
       <c r="F161" s="28"/>
@@ -4754,7 +4995,7 @@
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
     </row>
-    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:9">
       <c r="D162" s="28"/>
       <c r="E162" s="28"/>
       <c r="F162" s="28"/>
@@ -4762,7 +5003,7 @@
       <c r="H162" s="28"/>
       <c r="I162" s="28"/>
     </row>
-    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:9">
       <c r="D163" s="28"/>
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
@@ -4770,7 +5011,7 @@
       <c r="H163" s="28"/>
       <c r="I163" s="28"/>
     </row>
-    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:9">
       <c r="D164" s="28"/>
       <c r="E164" s="28"/>
       <c r="F164" s="28"/>
@@ -4778,7 +5019,7 @@
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
     </row>
-    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:9">
       <c r="D165" s="28"/>
       <c r="E165" s="28"/>
       <c r="F165" s="28"/>
@@ -4786,7 +5027,7 @@
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
     </row>
-    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:9">
       <c r="D166" s="28"/>
       <c r="E166" s="28"/>
       <c r="F166" s="28"/>
@@ -4797,11 +5038,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A18:A29"/>
     <mergeCell ref="A33:A52"/>
     <mergeCell ref="C1:C2"/>
@@ -4817,6 +5053,11 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A3:A13"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O13:T13">
@@ -4844,7 +5085,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00ADF2"/>
   </sheetPr>
   <dimension ref="A1:Q7"/>
@@ -4853,31 +5094,31 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="47" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="21">
         <f>N6</f>
-        <v>0</v>
+        <v>6.8896604938271606</v>
       </c>
       <c r="D1" s="49"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B2" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="78" t="s">
         <v>21</v>
       </c>
@@ -4903,7 +5144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="45">
       <c r="A5" s="78"/>
       <c r="B5" s="23" t="s">
         <v>22</v>
@@ -4943,65 +5184,65 @@
       </c>
       <c r="N5" s="73"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="78"/>
       <c r="B6" s="25">
         <f>'1 Website'!C3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6" s="25">
         <f>'1 Website'!C7</f>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="D6" s="25">
         <f>'1 Website'!C13</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="25">
         <f>AVERAGE(B6:D6)</f>
-        <v>0</v>
+        <v>5.6481481481481479</v>
       </c>
       <c r="F6" s="10">
         <f>'1 Website'!C22</f>
-        <v>0</v>
+        <v>7.0833333333333339</v>
       </c>
       <c r="G6" s="10">
         <f>'1 Website'!C28</f>
-        <v>0</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="H6" s="10">
         <f>AVERAGE(F6:G6)</f>
-        <v>0</v>
+        <v>5.875</v>
       </c>
       <c r="I6" s="10">
         <f>'1 Website'!C36</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="10">
         <f>'1 Website'!C42</f>
-        <v>0</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="K6" s="10">
         <f>'1 Website'!C46</f>
-        <v>0</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="L6" s="10">
         <f>'1 Website'!C51</f>
-        <v>0</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="M6" s="10">
         <f>AVERAGE(I6:L6)</f>
-        <v>0</v>
+        <v>9.1458333333333339</v>
       </c>
       <c r="N6" s="34">
         <f>AVERAGE(M6,H6,E6)</f>
-        <v>0</v>
+        <v>6.8896604938271606</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5054,7 +5295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6 H6 M6:N6">
+  <conditionalFormatting sqref="H6 E6 M6:N6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5084,60 +5325,60 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="56" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="56" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="7" width="33.375" customWidth="1"/>
-    <col min="8" max="8" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="55" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="56" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="58" t="str">
         <f>FIXED('2 Summary'!C1,1)</f>
-        <v>0.0</v>
+        <v>6.9</v>
       </c>
       <c r="D2" t="str">
         <f>'2 Summary'!A2</f>
         <v>Assesses the organisation’s performance on their website according to global standards and understanding of target audience groups’ needs</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="56">
         <v>3.1</v>
       </c>
@@ -5146,23 +5387,23 @@
       </c>
       <c r="C3" s="58" t="str">
         <f>FIXED('2 Summary'!E6,1)</f>
-        <v>0.0</v>
+        <v>5.6</v>
       </c>
       <c r="D3" t="str">
         <f>'1 Website'!W14</f>
         <v>Looks at elements of SEO that affect the users’ ability to find the organisation’s website.</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="56" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C4" s="58" t="str">
         <f>FIXED('2 Summary'!B6,1)</f>
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" t="str">
         <f>'1 Website'!W5</f>
@@ -5174,23 +5415,23 @@
       </c>
       <c r="G4" t="str">
         <f>'1 Website'!Z5</f>
-        <v xml:space="preserve">Ensure the website uses the organisation name (as well as earlier / colloquial names) in text, in a prominent way wherever relevant. Make sure the site mentions the organisation's acronym (as well as acronyms used in the past) in prominent positions and in clear text. </v>
+        <v>No recommendations.</v>
       </c>
       <c r="H4" s="65">
         <f>'1 Website'!V5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="56" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C5" s="58" t="str">
         <f>FIXED('2 Summary'!C6,1)</f>
-        <v>0.0</v>
+        <v>4.4</v>
       </c>
       <c r="E5" t="str">
         <f>'1 Website'!W8</f>
@@ -5209,16 +5450,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="56" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="58" t="str">
         <f>FIXED('2 Summary'!D6,1)</f>
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="str">
         <f>'1 Website'!W13</f>
@@ -5230,39 +5471,39 @@
       </c>
       <c r="G6" t="str">
         <f>'1 Website'!Z13</f>
-        <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. Add a sitemap.xml file to the website to help search engines understand the structure of your site. Ensure all your URLs are human-readable. A good example would be "http://www.hpb.com.sg/blog/2010/22/healthy-eating", as opposed to "http://www.hpb.com.sg/blog/?p=479". </v>
+        <v xml:space="preserve">Add a robots.txt file to your website to indicate to search engines, which pages they should and should not index. Ensure your robots.txt file does not disallow robots to crawl the website. Add a sitemap.xml file to the website to help search engines understand the structure of your site. </v>
       </c>
       <c r="H6" s="65">
         <f>'1 Website'!V13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="56" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="58" t="str">
         <f>FIXED('2 Summary'!H6,1)</f>
-        <v>0.0</v>
+        <v>5.9</v>
       </c>
       <c r="D7" t="str">
         <f>'1 Website'!V29</f>
         <v>Looks at elements of usability that affect how easy a website is to navigate by its target audience groups.</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="56" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C8" s="58" t="str">
         <f>FIXED('2 Summary'!F6,1)</f>
-        <v>0.0</v>
+        <v>7.1</v>
       </c>
       <c r="E8" t="str">
         <f>'1 Website'!W22</f>
@@ -5274,23 +5515,23 @@
       </c>
       <c r="G8" t="str">
         <f>'1 Website'!Z22</f>
-        <v>Ensure all font sizes used are at least as big as or bigger than Arial font point 10.Regularly check internal and outgoing hyperlinks to ensure they remain valid. This can be done with on-board tools of the CMS you use, or with external utilities. Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. Hyperlinks should be immediately recognisable as such. This means using colour, text decoration or other means to make them obvious.</v>
+        <v xml:space="preserve">Ensure all font sizes used are at least as big as or bigger than Arial font point 10.Make sure every page indicates where in the hierarchy of the site is lives and what other options the user has to go from there. </v>
       </c>
       <c r="H8" s="65">
         <f>'1 Website'!V22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="56" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C9" s="58" t="str">
         <f>FIXED('2 Summary'!G6,1)</f>
-        <v>0.0</v>
+        <v>4.7</v>
       </c>
       <c r="E9" t="str">
         <f>'1 Website'!W28</f>
@@ -5302,39 +5543,39 @@
       </c>
       <c r="G9" t="str">
         <f>'1 Website'!Z28</f>
-        <v xml:space="preserve">Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.Make sure your site search works for all key scenarios and returns relevant results, described appropriately. Ensure your labels use your audiences' language and are clear, simple and intuitive. Consider employing responsive web design to service mobile devices. Have a home link on every page, allowing the user to go back to the homepage easily. </v>
+        <v xml:space="preserve">Design your site structure to facilitate users completing their most common scenarios in a simple and logical way.Make sure your site search works for all key scenarios and returns relevant results, described appropriately. Ensure your labels use your audiences' language and are clear, simple and intuitive. Consider employing responsive web design to service mobile devices. </v>
       </c>
       <c r="H9" s="65">
         <f>'1 Website'!V28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="56" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="C10" s="58" t="str">
         <f>FIXED('2 Summary'!M6,1)</f>
-        <v>0.0</v>
+        <v>9.1</v>
       </c>
       <c r="D10" t="str">
         <f>'1 Website'!V52</f>
         <v>Looks at the elements of quality in the content published on the website, including text and images.</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="56" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="58" t="str">
         <f>FIXED('2 Summary'!I6,1)</f>
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" t="str">
         <f>'1 Website'!W36</f>
@@ -5346,23 +5587,23 @@
       </c>
       <c r="G11" t="str">
         <f>'1 Website'!Z36</f>
-        <v xml:space="preserve">Place the organisation's physical address prominently on the homepage or within one click of it. The page footer is one way of achieving this. Place the organisation's phone number prominently on the homepage or within one click of it. The page footer is one way of achieving this. Place the organisation's email address prominently on the homepage or within one click of it. The page footer is one way of achieving this. </v>
+        <v>No recommendations.</v>
       </c>
       <c r="H11" s="65">
         <f>'1 Website'!V36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="56" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C12" s="58" t="str">
         <f>FIXED('2 Summary'!J6,1)</f>
-        <v>0.0</v>
+        <v>9.3</v>
       </c>
       <c r="E12" t="str">
         <f>'1 Website'!W42</f>
@@ -5374,23 +5615,23 @@
       </c>
       <c r="G12" t="str">
         <f>'1 Website'!Z42</f>
-        <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. Use introductory paragraphs, page titles and imagery to make immediately apparent what each page is about. Make sure the page title on its own adequately explains what the user can expect from the page. Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. Make sure your site is updated regularly. </v>
+        <v xml:space="preserve">To make each page easily scannable, ensure sections of the page are separated with semantically correct hierarchical headings giving clues to the content of text paragraphs. Ensure that all hyperlink text can stand on its own and target audience groups are able to understand where they lead to upon clicking through. Not to use generic terms like ‘Click here’ and ‘Read more'. </v>
       </c>
       <c r="H12" s="65">
         <f>'1 Website'!V42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="56" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C13" s="58" t="str">
         <f>FIXED('2 Summary'!K6,1)</f>
-        <v>0.0</v>
+        <v>7.7</v>
       </c>
       <c r="E13" t="str">
         <f>'1 Website'!W46</f>
@@ -5402,23 +5643,23 @@
       </c>
       <c r="G13" t="str">
         <f>'1 Website'!Z46</f>
-        <v xml:space="preserve">Ensure your language, terminology and writing style is appropriate for your audience. Avoid passive language wherever possible. Form sentences in active language instead. Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
+        <v xml:space="preserve">Use easy to understand, plain English in your writing wherever possible. You can use the Grammar Tools – Readability Scores function in Microsoft Word to verify the ease of reading of your content. Copy the content of your webpages to Microsoft Word do a spellcheck. Please see http://office.microsoft.com/en-sg/word-help/test-your-document-s-readability-HP010148506.aspx#BM1 on how to activate the readability statistics. See also http://www.plainenglish.co.uk/ for tips on how to write plainly. </v>
       </c>
       <c r="H13" s="65">
         <f>'1 Website'!V46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="56" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C14" s="58" t="str">
         <f>FIXED('2 Summary'!L6,1)</f>
-        <v>0.0</v>
+        <v>9.6</v>
       </c>
       <c r="E14" t="str">
         <f>'1 Website'!W51</f>
@@ -5430,7 +5671,7 @@
       </c>
       <c r="G14" t="str">
         <f>'1 Website'!Z51</f>
-        <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. When inserting photos, always use JPEG or PNG format, never GIF. When inserting line drawings, diagrams and logos, always use GIF or PNG format, never JPEG. Use images that help to illustrate the content. Don't just add stock photography with little relation to the page and its subject matter. </v>
+        <v xml:space="preserve">Ensure that images used are clear and of high enough resolution to avoid visible grain and JPEG artefacts. </v>
       </c>
       <c r="H14" s="65">
         <f>'1 Website'!V51</f>
